--- a/data/sonuclar.xlsx
+++ b/data/sonuclar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,6 +744,132 @@
         <v>34.61</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-11 16:49</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>gh</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3896</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2666</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2041</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1396</v>
+      </c>
+      <c r="N6" t="n">
+        <v>38.96</v>
+      </c>
+      <c r="O6" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cvf</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>39</v>
+      </c>
+      <c r="E7" t="n">
+        <v>35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29</v>
+      </c>
+      <c r="H7" t="n">
+        <v>37</v>
+      </c>
+      <c r="I7" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>%45.77</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>%31.32</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>%13.61</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>%9.31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sonuclar.xlsx
+++ b/data/sonuclar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,475 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-11 17:20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>cvf</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>35</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>23</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>%32.64</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>%34.03</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>%16.32</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>%17.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-12 07:50</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>%42.36</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>%24.31</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>%21.18</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>%12.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-12 07:54</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27</v>
+      </c>
+      <c r="G10" t="n">
+        <v>29</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>%38.89</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>%27.78</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>%19.44</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>%13.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-12 07:55</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>45</v>
+      </c>
+      <c r="E11" t="n">
+        <v>48</v>
+      </c>
+      <c r="F11" t="n">
+        <v>45</v>
+      </c>
+      <c r="G11" t="n">
+        <v>44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>%89.81</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>%7.06</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>%2.9</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>%0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-12 07:56</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>21</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>%26.37</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>%29.88</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>%20.51</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>%23.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-08-12 08:09</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>19</v>
+      </c>
+      <c r="E13" t="n">
+        <v>25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>28</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>22</v>
+      </c>
+      <c r="I13" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>%24.83</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>%21.01</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>%29.34</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>%24.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-08-12 08:19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>36</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25</v>
+      </c>
+      <c r="G14" t="n">
+        <v>29</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>%34.57</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>%26.89</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>%21.68</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>%16.86</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sonuclar.xlsx
+++ b/data/sonuclar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1339,6 +1339,73 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-12 08:50</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Deneme Testi Örnek</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Deneme Testi Örnek</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>32</v>
+      </c>
+      <c r="G15" t="n">
+        <v>35</v>
+      </c>
+      <c r="H15" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>%48.71</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>%21.08</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>%21.08</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>%9.13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sonuclar.xlsx
+++ b/data/sonuclar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1406,6 +1406,1003 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:49</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>33</v>
+      </c>
+      <c r="E16" t="n">
+        <v>38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>32</v>
+      </c>
+      <c r="G16" t="n">
+        <v>35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>%51.62</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>%22.34</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>%18.17</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>%7.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:51</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38</v>
+      </c>
+      <c r="F17" t="n">
+        <v>32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>35</v>
+      </c>
+      <c r="H17" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>%51.62</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>%22.34</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>%18.17</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>%7.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-12 10:56</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>dg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>dg</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>29</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22</v>
+      </c>
+      <c r="F18" t="n">
+        <v>32</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21</v>
+      </c>
+      <c r="H18" t="n">
+        <v>18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>%15.1</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>%22.4</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>%25.17</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>%37.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:07</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>dg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>dg</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>29</v>
+      </c>
+      <c r="E19" t="n">
+        <v>38</v>
+      </c>
+      <c r="F19" t="n">
+        <v>32</v>
+      </c>
+      <c r="G19" t="n">
+        <v>39</v>
+      </c>
+      <c r="H19" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>%51.62</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>%18.17</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>%22.34</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>%7.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>dg</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>29</v>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>21</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>%15.1</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>%22.4</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>%25.17</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>%37.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>dg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>dg</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>31</v>
+      </c>
+      <c r="E21" t="n">
+        <v>38</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>39</v>
+      </c>
+      <c r="H21" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>%50.16</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>%21.71</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>%19.63</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>%8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:32</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>deneme deneme</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>deneme deneme</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>31</v>
+      </c>
+      <c r="E22" t="n">
+        <v>38</v>
+      </c>
+      <c r="F22" t="n">
+        <v>28</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39</v>
+      </c>
+      <c r="H22" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>%50.16</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>%21.71</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>%19.63</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>%8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:49</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>asdfgh</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>asdfgh</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>31</v>
+      </c>
+      <c r="E23" t="n">
+        <v>38</v>
+      </c>
+      <c r="F23" t="n">
+        <v>28</v>
+      </c>
+      <c r="G23" t="n">
+        <v>39</v>
+      </c>
+      <c r="H23" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>%50.16</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>%21.71</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>%19.63</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>%8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:52</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>31</v>
+      </c>
+      <c r="E24" t="n">
+        <v>38</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28</v>
+      </c>
+      <c r="G24" t="n">
+        <v>39</v>
+      </c>
+      <c r="H24" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>%50.16</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>%21.71</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>%19.63</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>%8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-08-12 11:55</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>exceli test ediyorum</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>exceli test ediyorum</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>31</v>
+      </c>
+      <c r="E25" t="n">
+        <v>38</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28</v>
+      </c>
+      <c r="G25" t="n">
+        <v>39</v>
+      </c>
+      <c r="H25" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>%50.16</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>%21.71</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>%19.63</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>%8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-08-12 12:51</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>31</v>
+      </c>
+      <c r="E26" t="n">
+        <v>38</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28</v>
+      </c>
+      <c r="G26" t="n">
+        <v>39</v>
+      </c>
+      <c r="H26" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>%50.16</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>%21.71</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>%19.63</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>%8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-08-12 13:58</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>31</v>
+      </c>
+      <c r="E27" t="n">
+        <v>38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>39</v>
+      </c>
+      <c r="H27" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>%50.16</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>%21.71</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>%19.63</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>%8.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>31</v>
+      </c>
+      <c r="E28" t="n">
+        <v>38</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+      <c r="G28" t="n">
+        <v>39</v>
+      </c>
+      <c r="H28" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>%49.41</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>%22.46</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>%19.34</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>%8.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:04</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>yaren</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>31</v>
+      </c>
+      <c r="E29" t="n">
+        <v>38</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>37</v>
+      </c>
+      <c r="H29" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>%47.92</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>%23.96</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>%18.75</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>%9.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-08-12 14:21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>48</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>48</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12</v>
+      </c>
+      <c r="H30" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>%39.06</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>%23.44</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>%23.44</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>%14.06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sonuclar.xlsx
+++ b/data/sonuclar.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2350,8 +2350,6 @@
           <t>2025-08-12 14:21</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>48</v>
       </c>
@@ -2400,6 +2398,140 @@
       <c r="Q30" t="inlineStr">
         <is>
           <t>%14.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-08-15 11:57</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hacer Yaren Ünsal</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Hacer Yaren Ünsal</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>44</v>
+      </c>
+      <c r="E31" t="n">
+        <v>33</v>
+      </c>
+      <c r="F31" t="n">
+        <v>31</v>
+      </c>
+      <c r="G31" t="n">
+        <v>26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>%47.62</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>%32.58</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>%11.75</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>%8.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-08-18 09:55</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Hacer Yaren Ünsal</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Hacer Yaren Ünsal</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>36</v>
+      </c>
+      <c r="E32" t="n">
+        <v>31</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26</v>
+      </c>
+      <c r="G32" t="n">
+        <v>31</v>
+      </c>
+      <c r="H32" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>%41.44</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>%28.35</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>%17.94</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>%12.27</t>
         </is>
       </c>
     </row>
